--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Egfr</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H2">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I2">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J2">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>2.744576564451333</v>
+        <v>0.04423685354666666</v>
       </c>
       <c r="R2">
-        <v>24.70118908006199</v>
+        <v>0.3981316819199999</v>
       </c>
       <c r="S2">
-        <v>0.01591036471447374</v>
+        <v>0.001002026505613122</v>
       </c>
       <c r="T2">
-        <v>0.01591036471447374</v>
+        <v>0.001002026505613122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H3">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I3">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J3">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>89.56021128192843</v>
+        <v>5.24150376896711</v>
       </c>
       <c r="R3">
-        <v>806.041901537356</v>
+        <v>47.17353392070399</v>
       </c>
       <c r="S3">
-        <v>0.5191823189985102</v>
+        <v>0.1187273796549638</v>
       </c>
       <c r="T3">
-        <v>0.5191823189985103</v>
+        <v>0.1187273796549638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H4">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I4">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J4">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>31.02034166794077</v>
+        <v>1.770080607825778</v>
       </c>
       <c r="R4">
-        <v>279.183075011467</v>
+        <v>15.930725470432</v>
       </c>
       <c r="S4">
-        <v>0.1798255351652719</v>
+        <v>0.04009479752537384</v>
       </c>
       <c r="T4">
-        <v>0.1798255351652719</v>
+        <v>0.04009479752537384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H5">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I5">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J5">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.24448016021</v>
+        <v>0.01189418924977778</v>
       </c>
       <c r="R5">
-        <v>2.20032144189</v>
+        <v>0.107047703248</v>
       </c>
       <c r="S5">
-        <v>0.001417256331914964</v>
+        <v>0.0002694199956713255</v>
       </c>
       <c r="T5">
-        <v>0.001417256331914964</v>
+        <v>0.0002694199956713255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H6">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I6">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J6">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>0.1606261106453333</v>
+        <v>0.1659504454533333</v>
       </c>
       <c r="R6">
-        <v>1.445634995808</v>
+        <v>1.49355400908</v>
       </c>
       <c r="S6">
-        <v>0.0009311527454310821</v>
+        <v>0.003759009324366259</v>
       </c>
       <c r="T6">
-        <v>0.0009311527454310821</v>
+        <v>0.00375900932436626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H7">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I7">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J7">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
-        <v>5.241503768967111</v>
+        <v>19.66301433233289</v>
       </c>
       <c r="R7">
-        <v>47.173533920704</v>
+        <v>176.967128990996</v>
       </c>
       <c r="S7">
-        <v>0.03038510118344129</v>
+        <v>0.4453947322556107</v>
       </c>
       <c r="T7">
-        <v>0.03038510118344129</v>
+        <v>0.4453947322556107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H8">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I8">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J8">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>1.815462865036444</v>
+        <v>6.640292918824222</v>
       </c>
       <c r="R8">
-        <v>16.339165785328</v>
+        <v>59.762636269418</v>
       </c>
       <c r="S8">
-        <v>0.01052427419312588</v>
+        <v>0.1504119071822722</v>
       </c>
       <c r="T8">
-        <v>0.01052427419312588</v>
+        <v>0.1504119071822722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H9">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I9">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J9">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>0.01430818064</v>
+        <v>0.04461994572522223</v>
       </c>
       <c r="R9">
-        <v>0.12877362576</v>
+        <v>0.4015795115270001</v>
       </c>
       <c r="S9">
-        <v>8.294480661663791E-05</v>
+        <v>0.001010704078411124</v>
       </c>
       <c r="T9">
-        <v>8.294480661663791E-05</v>
+        <v>0.001010704078411124</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H10">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I10">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J10">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>0.3175558685673333</v>
+        <v>0.06613134835999999</v>
       </c>
       <c r="R10">
-        <v>2.858002817106</v>
+        <v>0.59518213524</v>
       </c>
       <c r="S10">
-        <v>0.001840877660899866</v>
+        <v>0.001497967386824873</v>
       </c>
       <c r="T10">
-        <v>0.001840877660899866</v>
+        <v>0.001497967386824873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H11">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I11">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J11">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>10.36238924833645</v>
+        <v>7.835722568065332</v>
       </c>
       <c r="R11">
-        <v>93.26150323502802</v>
+        <v>70.52150311258799</v>
       </c>
       <c r="S11">
-        <v>0.06007097575262332</v>
+        <v>0.1774900580474042</v>
       </c>
       <c r="T11">
-        <v>0.06007097575262332</v>
+        <v>0.1774900580474042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H12">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I12">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J12">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>3.589148019846778</v>
+        <v>2.646160563339333</v>
       </c>
       <c r="R12">
-        <v>32.302332178621</v>
+        <v>23.815445070054</v>
       </c>
       <c r="S12">
-        <v>0.02080636217245017</v>
+        <v>0.05993923188449646</v>
       </c>
       <c r="T12">
-        <v>0.02080636217245017</v>
+        <v>0.05993923188449646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H13">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I13">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J13">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>0.02828709923</v>
+        <v>0.01778107414233334</v>
       </c>
       <c r="R13">
-        <v>0.25458389307</v>
+        <v>0.160029667281</v>
       </c>
       <c r="S13">
-        <v>0.0001639808746067101</v>
+        <v>0.0004027661589921707</v>
       </c>
       <c r="T13">
-        <v>0.0001639808746067101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.675943</v>
-      </c>
-      <c r="I14">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J14">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.701354</v>
-      </c>
-      <c r="N14">
-        <v>8.104061999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.02221077311549548</v>
-      </c>
-      <c r="P14">
-        <v>0.02221077311549548</v>
-      </c>
-      <c r="Q14">
-        <v>0.6086537756073332</v>
-      </c>
-      <c r="R14">
-        <v>5.477883980465999</v>
-      </c>
-      <c r="S14">
-        <v>0.00352837799469079</v>
-      </c>
-      <c r="T14">
-        <v>0.003528377994690791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.675943</v>
-      </c>
-      <c r="I15">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J15">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>88.14978533333334</v>
-      </c>
-      <c r="N15">
-        <v>264.449356</v>
-      </c>
-      <c r="O15">
-        <v>0.7247753838328105</v>
-      </c>
-      <c r="P15">
-        <v>0.7247753838328105</v>
-      </c>
-      <c r="Q15">
-        <v>19.86141011585644</v>
-      </c>
-      <c r="R15">
-        <v>178.752691042708</v>
-      </c>
-      <c r="S15">
-        <v>0.1151369878982356</v>
-      </c>
-      <c r="T15">
-        <v>0.1151369878982356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.675943</v>
-      </c>
-      <c r="I16">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J16">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>30.53182233333333</v>
-      </c>
-      <c r="N16">
-        <v>91.595467</v>
-      </c>
-      <c r="O16">
-        <v>0.2510353617660938</v>
-      </c>
-      <c r="P16">
-        <v>0.2510353617660938</v>
-      </c>
-      <c r="Q16">
-        <v>6.879257194486778</v>
-      </c>
-      <c r="R16">
-        <v>61.913314750381</v>
-      </c>
-      <c r="S16">
-        <v>0.03987919023524579</v>
-      </c>
-      <c r="T16">
-        <v>0.0398791902352458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.675943</v>
-      </c>
-      <c r="I17">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J17">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.24063</v>
-      </c>
-      <c r="N17">
-        <v>0.72189</v>
-      </c>
-      <c r="O17">
-        <v>0.001978481285600361</v>
-      </c>
-      <c r="P17">
-        <v>0.001978481285600361</v>
-      </c>
-      <c r="Q17">
-        <v>0.05421738802999999</v>
-      </c>
-      <c r="R17">
-        <v>0.48795649227</v>
-      </c>
-      <c r="S17">
-        <v>0.0003142992724620486</v>
-      </c>
-      <c r="T17">
-        <v>0.0003142992724620487</v>
+        <v>0.0004027661589921708</v>
       </c>
     </row>
   </sheetData>
